--- a/Scrum/Burndown.xlsx
+++ b/Scrum/Burndown.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b62330a207099ca/Dokumente/GitHub/prj4-group-android-group5/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:40000_{B31F6769-4092-42E5-AFDE-835783943336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="10_ncr:40000_{B31F6769-4092-42E5-AFDE-835783943336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A6FEC4D-D0A0-4C23-AB7C-7BEF95ACD04E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Done Storypoints</t>
   </si>
@@ -88,12 +88,27 @@
   </si>
   <si>
     <t>Storypoints Per Sprint:</t>
+  </si>
+  <si>
+    <t>Login/Register</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Cancel Party</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,13 +144,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -267,10 +289,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$10</c:f>
+              <c:f>Tabelle1!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -294,39 +316,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$10</c:f>
+              <c:f>Tabelle1!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>169</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>117</c:v>
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,10 +398,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$3:$A$10</c:f>
+              <c:f>Tabelle1!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -397,39 +425,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$E$3:$E$10</c:f>
+              <c:f>Tabelle1!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>169</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144.85714285714286</c:v>
+                  <c:v>170.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120.71428571428572</c:v>
+                  <c:v>146.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.571428571428569</c:v>
+                  <c:v>121.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.428571428571431</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.285714285714292</c:v>
+                  <c:v>73.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24.142857142857139</c:v>
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,15 +1223,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>690563</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1226,16 +1260,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A2:E10" totalsRowShown="0">
-  <autoFilter ref="A2:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A2:E12" totalsRowCount="1">
+  <autoFilter ref="A2:E11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Sprint"/>
-    <tableColumn id="2" name="Storypoints left" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Storypoints left" dataDxfId="3" totalsRowDxfId="1">
       <calculatedColumnFormula>SUM(F:F)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Done Storypoints"/>
-    <tableColumn id="4" name="Assigned Storypoints"/>
-    <tableColumn id="6" name="Expected" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Done Storypoints"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Assigned Storypoints"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Expected" dataDxfId="2" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(I:I)-((Tabelle1[[#This Row],[Sprint]]-1)*(SUM(I:I)/MAX(A:A)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1539,10 +1573,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1555,7 +1589,18 @@
     <col min="8" max="8" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1571,14 +1616,24 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>18</v>
+      </c>
+      <c r="M2">
+        <f>AVERAGE(L:L)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <f>SUM(I:I)</f>
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1587,114 +1642,155 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <f>B3-C3</f>
-        <v>169</v>
+        <f t="shared" ref="B4:B11" si="0">B3-C3</f>
+        <v>195</v>
       </c>
       <c r="C4">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>52</v>
       </c>
       <c r="E4">
         <f>SUM(I:I)-((Tabelle1[[#This Row],[Sprint]]-1)*(SUM(I:I)/MAX(A:A)))</f>
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="H4">
         <f>SUM(I:I)-(SUM(I:I)/MAX(A:A)*A3)</f>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <f>B4-C4</f>
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>177</v>
       </c>
       <c r="E5">
         <f>SUM(I:I)-((Tabelle1[[#This Row],[Sprint]]-1)*(SUM(I:I)/MAX(A:A)))</f>
-        <v>144.85714285714286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>170.625</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <f>B5-C5</f>
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>177</v>
       </c>
       <c r="E6">
         <f>SUM(I:I)-((Tabelle1[[#This Row],[Sprint]]-1)*(SUM(I:I)/MAX(A:A)))</f>
-        <v>120.71428571428572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>146.25</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7">
-        <f>B6-C6</f>
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>177</v>
       </c>
       <c r="E7">
         <f>SUM(I:I)-((Tabelle1[[#This Row],[Sprint]]-1)*(SUM(I:I)/MAX(A:A)))</f>
-        <v>96.571428571428569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121.875</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
-        <f>B7-C7</f>
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>177</v>
       </c>
       <c r="E8">
         <f>SUM(I:I)-((Tabelle1[[#This Row],[Sprint]]-1)*(SUM(I:I)/MAX(A:A)))</f>
-        <v>72.428571428571431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97.5</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9">
-        <f>B8-C8</f>
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>177</v>
       </c>
       <c r="E9">
         <f>SUM(I:I)-((Tabelle1[[#This Row],[Sprint]]-1)*(SUM(I:I)/MAX(A:A)))</f>
-        <v>48.285714285714292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73.125</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10">
-        <f>B9-C9</f>
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>177</v>
       </c>
       <c r="E10">
         <f>SUM(I:I)-((Tabelle1[[#This Row],[Sprint]]-1)*(SUM(I:I)/MAX(A:A)))</f>
-        <v>24.142857142857139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48.75</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="E11" s="1">
+        <f>SUM(I:I)-((Tabelle1[[#This Row],[Sprint]]-1)*(SUM(I:I)/MAX(A:A)))</f>
+        <v>24.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
         <v>2</v>
       </c>
@@ -1710,7 +1806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H16" t="s">
         <v>4</v>
       </c>
@@ -1718,7 +1814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
         <v>6</v>
       </c>
@@ -1734,7 +1830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
         <v>8</v>
       </c>
@@ -1750,7 +1846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
         <v>10</v>
       </c>
@@ -1766,7 +1862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>11</v>
       </c>
@@ -1774,11 +1870,30 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>13</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26">
         <v>13</v>
       </c>
     </row>
